--- a/data_calculated.xlsx
+++ b/data_calculated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/pythonProject/pileg_calculated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA227270-F275-EB4E-9D7E-8619A0302017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E05B3F-FD8A-444B-8B41-E5666A510756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{21A968B2-5339-AD4E-85AA-F71C63B86228}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{21A968B2-5339-AD4E-85AA-F71C63B86228}"/>
   </bookViews>
   <sheets>
     <sheet name="perolehan_suara" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="128">
   <si>
     <t>DAPIL</t>
   </si>
@@ -353,6 +353,75 @@
   </si>
   <si>
     <t>UMMAT</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>ACEH</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>RIAU</t>
+  </si>
+  <si>
+    <t>SULAWESI SELATAN</t>
+  </si>
+  <si>
+    <t>SUMATERA BARAT</t>
+  </si>
+  <si>
+    <t>SUMATERA SELATAN</t>
+  </si>
+  <si>
+    <t>SUMATERA UTARA</t>
+  </si>
+  <si>
+    <t>JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>JAWA TIMUR</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA BARAT</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA TIMUR</t>
+  </si>
+  <si>
+    <t>LAMPUNG</t>
+  </si>
+  <si>
+    <t>KALIMANTAN BARAT</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>PROPINSI</t>
+  </si>
+  <si>
+    <t>JAWA</t>
+  </si>
+  <si>
+    <t>SUMATERA</t>
+  </si>
+  <si>
+    <t>SULAWESI</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA</t>
+  </si>
+  <si>
+    <t>KALIMANTAN</t>
+  </si>
+  <si>
+    <t>GUGUSAN</t>
   </si>
 </sst>
 </file>
@@ -421,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -437,9 +506,6 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5823,951 +5889,1461 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD1EE29-32D3-6B4C-AE7E-0EDD8A4FD907}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="6" customWidth="1"/>
+    <col min="1" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="7">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>2289115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="7">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>3973080</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="7">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>2632764</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="7">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2">
         <v>2255850</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="7">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
         <v>3889441</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2">
         <v>3202856</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="7">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
         <v>4713343</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="7">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2">
         <v>3360658</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="E10" s="2">
         <v>3088907</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="E11" s="2">
         <v>2348025</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="E12" s="2">
         <v>3960862</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="7">
         <v>8</v>
       </c>
-      <c r="C13" s="2">
+      <c r="E13" s="2">
         <v>2676107</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="7">
         <v>3</v>
       </c>
-      <c r="C14" s="2">
+      <c r="E14" s="2">
         <v>881206</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="7">
         <v>8</v>
       </c>
-      <c r="C15" s="2">
+      <c r="E15" s="2">
         <v>2870974</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="7">
         <v>6</v>
       </c>
-      <c r="C16" s="2">
+      <c r="E16" s="2">
         <v>2383972</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="7">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="E17" s="2">
         <v>4346875</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="7">
         <v>8</v>
       </c>
-      <c r="C18" s="2">
+      <c r="E18" s="2">
         <v>3272524</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7">
         <v>9</v>
       </c>
-      <c r="C19" s="2">
+      <c r="E19" s="2">
         <v>3269516</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="7">
         <v>7</v>
       </c>
-      <c r="C20" s="2">
+      <c r="E20" s="2">
         <v>1964576</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="7">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="E21" s="2">
         <v>1777461</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="7">
         <v>4</v>
       </c>
-      <c r="C22" s="2">
+      <c r="E22" s="2">
         <v>1494828</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="7">
         <v>6</v>
       </c>
-      <c r="C23" s="2">
+      <c r="E23" s="2">
         <v>2044770</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="7">
         <v>6</v>
       </c>
-      <c r="C24" s="2">
+      <c r="E24" s="2">
         <v>2059041</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="7">
         <v>10</v>
       </c>
-      <c r="C25" s="2">
+      <c r="E25" s="2">
         <v>4738835</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="7">
         <v>7</v>
       </c>
-      <c r="C26" s="2">
+      <c r="E26" s="2">
         <v>2763848</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="7">
         <v>6</v>
       </c>
-      <c r="C27" s="2">
+      <c r="E27" s="2">
         <v>1968326</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="7">
         <v>4</v>
       </c>
-      <c r="C28" s="2">
+      <c r="E28" s="2">
         <v>985760</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="7">
         <v>8</v>
       </c>
-      <c r="C29" s="2">
+      <c r="E29" s="2">
         <v>2375153</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="7">
         <v>9</v>
       </c>
-      <c r="C30" s="2">
+      <c r="E30" s="2">
         <v>2375339</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="7">
         <v>7</v>
       </c>
-      <c r="C31" s="2">
+      <c r="E31" s="2">
         <v>1920090</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="7">
         <v>7</v>
       </c>
-      <c r="C32" s="2">
+      <c r="E32" s="2">
         <v>2236703</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="7">
         <v>6</v>
       </c>
-      <c r="C33" s="2">
+      <c r="E33" s="2">
         <v>1867931</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="7">
         <v>6</v>
       </c>
-      <c r="C34" s="2">
+      <c r="E34" s="2">
         <v>1969603</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="7">
         <v>8</v>
       </c>
-      <c r="C35" s="2">
+      <c r="E35" s="2">
         <v>2298162</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="7">
         <v>6</v>
       </c>
-      <c r="C36" s="2">
+      <c r="E36" s="2">
         <v>1790444</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="7">
         <v>8</v>
       </c>
-      <c r="C37" s="2">
+      <c r="E37" s="2">
         <v>2952030</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="7">
         <v>9</v>
       </c>
-      <c r="C38" s="2">
+      <c r="E38" s="2">
         <v>3374318</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="7">
         <v>10</v>
       </c>
-      <c r="C39" s="2">
+      <c r="E39" s="2">
         <v>3895322</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="7">
         <v>10</v>
       </c>
-      <c r="C40" s="2">
+      <c r="E40" s="2">
         <v>3438838</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="7">
         <v>10</v>
       </c>
-      <c r="C41" s="2">
+      <c r="E41" s="2">
         <v>3519780</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="7">
         <v>8</v>
       </c>
-      <c r="C42" s="2">
+      <c r="E42" s="2">
         <v>2985146</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="7">
         <v>7</v>
       </c>
-      <c r="C43" s="2">
+      <c r="E43" s="2">
         <v>2454563</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="7">
         <v>9</v>
       </c>
-      <c r="C44" s="2">
+      <c r="E44" s="2">
         <v>3366140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="7">
         <v>7</v>
       </c>
-      <c r="C45" s="2">
+      <c r="E45" s="2">
         <v>2313625</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="7">
         <v>8</v>
       </c>
-      <c r="C46" s="2">
+      <c r="E46" s="2">
         <v>2914733</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="7">
         <v>8</v>
       </c>
-      <c r="C47" s="2">
+      <c r="E47" s="2">
         <v>3030588</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="7">
         <v>7</v>
       </c>
-      <c r="C48" s="2">
+      <c r="E48" s="2">
         <v>2642386</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="7">
         <v>8</v>
       </c>
-      <c r="C49" s="2">
+      <c r="E49" s="2">
         <v>2889101</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="7">
         <v>8</v>
       </c>
-      <c r="C50" s="2">
+      <c r="E50" s="2">
         <v>2966971</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="7">
         <v>7</v>
       </c>
-      <c r="C51" s="2">
+      <c r="E51" s="2">
         <v>2726160</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="7">
         <v>10</v>
       </c>
-      <c r="C52" s="2">
+      <c r="E52" s="2">
         <v>3680228</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="7">
         <v>7</v>
       </c>
-      <c r="C53" s="2">
+      <c r="E53" s="2">
         <v>2422268</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="7">
         <v>7</v>
       </c>
-      <c r="C54" s="2">
+      <c r="E54" s="2">
         <v>2464420</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="7">
         <v>8</v>
       </c>
-      <c r="C55" s="2">
+      <c r="E55" s="2">
         <v>2809882</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="7">
         <v>8</v>
       </c>
-      <c r="C56" s="2">
+      <c r="E56" s="2">
         <v>2870452</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="7">
         <v>9</v>
       </c>
-      <c r="C57" s="2">
+      <c r="E57" s="2">
         <v>3431669</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="7">
         <v>8</v>
       </c>
-      <c r="C58" s="2">
+      <c r="E58" s="2">
         <v>3059436</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="7">
         <v>10</v>
       </c>
-      <c r="C59" s="2">
+      <c r="E59" s="2">
         <v>3549110</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="7">
         <v>6</v>
       </c>
-      <c r="C60" s="2">
+      <c r="E60" s="2">
         <v>1979375</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="7">
         <v>6</v>
       </c>
-      <c r="C61" s="2">
+      <c r="E61" s="2">
         <v>2006768</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="7">
         <v>8</v>
       </c>
-      <c r="C62" s="2">
+      <c r="E62" s="2">
         <v>3129230</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="7">
         <v>4</v>
       </c>
-      <c r="C63" s="2">
+      <c r="E63" s="2">
         <v>1341012</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="7">
         <v>3</v>
       </c>
-      <c r="C64" s="2">
+      <c r="E64" s="2">
         <v>953978</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="7">
         <v>3</v>
       </c>
-      <c r="C65" s="2">
+      <c r="E65" s="2">
         <v>1143741</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="7">
         <v>8</v>
       </c>
-      <c r="C66" s="2">
+      <c r="E66" s="2">
         <v>2774550</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="7">
         <v>6</v>
       </c>
-      <c r="C67" s="2">
+      <c r="E67" s="2">
         <v>1824278</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="7">
         <v>7</v>
       </c>
-      <c r="C68" s="2">
+      <c r="E68" s="2">
         <v>2184197</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="7">
         <v>3</v>
       </c>
-      <c r="C69" s="2">
+      <c r="E69" s="2">
         <v>727835</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="7">
         <v>3</v>
       </c>
-      <c r="C70" s="2">
+      <c r="E70" s="2">
         <v>385465</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="7">
         <v>3</v>
       </c>
-      <c r="C71" s="2">
+      <c r="E71" s="2">
         <v>440826</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="7">
         <v>3</v>
       </c>
-      <c r="C72" s="2">
+      <c r="E72" s="2">
         <v>1306414</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="7">
         <v>3</v>
       </c>
-      <c r="C73" s="2">
+      <c r="E73" s="2">
         <v>367269</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="7">
         <v>3</v>
       </c>
-      <c r="C74" s="2">
+      <c r="E74" s="2">
         <v>1128844</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="7">
         <v>10</v>
       </c>
-      <c r="C75" s="2">
+      <c r="E75" s="2">
         <v>3172894</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="7">
         <v>10</v>
       </c>
-      <c r="C76" s="2">
+      <c r="E76" s="2">
         <v>3366234</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="7">
         <v>8</v>
       </c>
-      <c r="C77" s="2">
+      <c r="E77" s="2">
         <v>2774586</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" s="7">
         <v>4</v>
       </c>
-      <c r="C78" s="2">
+      <c r="E78" s="2">
         <v>1183975</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" s="7">
         <v>6</v>
       </c>
-      <c r="C79" s="2">
+      <c r="E79" s="2">
         <v>1619098</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="7">
         <v>5</v>
       </c>
-      <c r="C80" s="2">
+      <c r="E80" s="2">
         <v>1406122</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="7">
         <v>6</v>
       </c>
-      <c r="C81" s="2">
+      <c r="E81" s="2">
         <v>1935116</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="7">
         <v>8</v>
       </c>
-      <c r="C82" s="2">
+      <c r="E82" s="2">
         <v>2778644</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" s="7">
         <v>3</v>
       </c>
-      <c r="C83" s="2">
+      <c r="E83" s="2">
         <v>504252</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="7">
         <v>3</v>
       </c>
-      <c r="C84" s="2">
+      <c r="E84" s="2">
         <v>1067434</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="7">
         <v>4</v>
       </c>
-      <c r="C85" s="2">
+      <c r="E85" s="2">
         <v>1500974</v>
       </c>
     </row>
@@ -6780,7 +7356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60454FA7-49EB-7A42-A02C-D7E4B3B59FDA}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
